--- a/Documentation/Event Table.xlsx
+++ b/Documentation/Event Table.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F097D8B-7005-442C-A5E3-9CCD273DC392}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,109 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Provider wants to post an ad</t>
+  </si>
+  <si>
+    <t>Provider wants to view customer requests</t>
+  </si>
+  <si>
+    <t>Customer wants to add customer request</t>
+  </si>
+  <si>
+    <t>Customer wants to search for an ad</t>
+  </si>
+  <si>
+    <t>Customer wants to view an add</t>
+  </si>
+  <si>
+    <t>Post ad request</t>
+  </si>
+  <si>
+    <t>View ad request</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Post an ad</t>
+  </si>
+  <si>
+    <t>View customer requests</t>
+  </si>
+  <si>
+    <t>View an ad</t>
+  </si>
+  <si>
+    <t>Customer request view request</t>
+  </si>
+  <si>
+    <t>Customer request details</t>
+  </si>
+  <si>
+    <t>Customer request add request</t>
+  </si>
+  <si>
+    <t>Add customer requset</t>
+  </si>
+  <si>
+    <t>Search ad requset</t>
+  </si>
+  <si>
+    <t>Search ad</t>
+  </si>
+  <si>
+    <t>Search results</t>
+  </si>
+  <si>
+    <t>Customer/ Provider wants to create user account</t>
+  </si>
+  <si>
+    <t>Customer/ Provider wants to edit user details</t>
+  </si>
+  <si>
+    <t>Create user account request</t>
+  </si>
+  <si>
+    <t>Edit user details requet</t>
+  </si>
+  <si>
+    <t>Customer/Provider</t>
+  </si>
+  <si>
+    <t>Create account</t>
+  </si>
+  <si>
+    <t>Edit user details</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +432,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/Event Table.xlsx
+++ b/Documentation/Event Table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F097D8B-7005-442C-A5E3-9CCD273DC392}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653623B7-3766-4F27-B1CC-8F982D3F972B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Event</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Customer request view request</t>
   </si>
   <si>
-    <t>Customer request details</t>
-  </si>
-  <si>
     <t>Customer request add request</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Search ad</t>
   </si>
   <si>
-    <t>Search results</t>
-  </si>
-  <si>
     <t>Customer/ Provider wants to create user account</t>
   </si>
   <si>
@@ -116,6 +110,39 @@
   </si>
   <si>
     <t>Edit user details</t>
+  </si>
+  <si>
+    <t>Provider wants to edit an ad</t>
+  </si>
+  <si>
+    <t>Edit ad request</t>
+  </si>
+  <si>
+    <t>Edit an ad</t>
+  </si>
+  <si>
+    <t>Provider wants to remove an ad</t>
+  </si>
+  <si>
+    <t>Remove ad requset</t>
+  </si>
+  <si>
+    <t>Remove an ad</t>
+  </si>
+  <si>
+    <t>Customer wants to remove customer requset</t>
+  </si>
+  <si>
+    <t>Customer requset remove requset</t>
+  </si>
+  <si>
+    <t>Remove customer requset</t>
+  </si>
+  <si>
+    <t>Search results list</t>
+  </si>
+  <si>
+    <t>Customer request details list</t>
   </si>
 </sst>
 </file>
@@ -433,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,8 +471,8 @@
     <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -484,98 +511,140 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Event Table.xlsx
+++ b/Documentation/Event Table.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653623B7-3766-4F27-B1CC-8F982D3F972B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA793E0-0DDF-4D27-8554-B2264CDD8F05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Event</t>
   </si>
@@ -40,18 +40,12 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>Provider wants to post an ad</t>
-  </si>
-  <si>
     <t>Provider wants to view customer requests</t>
   </si>
   <si>
     <t>Customer wants to add customer request</t>
   </si>
   <si>
-    <t>Customer wants to search for an ad</t>
-  </si>
-  <si>
     <t>Customer wants to view an add</t>
   </si>
   <si>
@@ -91,27 +85,12 @@
     <t>Search ad</t>
   </si>
   <si>
-    <t>Customer/ Provider wants to create user account</t>
-  </si>
-  <si>
     <t>Customer/ Provider wants to edit user details</t>
   </si>
   <si>
-    <t>Create user account request</t>
-  </si>
-  <si>
-    <t>Edit user details requet</t>
-  </si>
-  <si>
     <t>Customer/Provider</t>
   </si>
   <si>
-    <t>Create account</t>
-  </si>
-  <si>
-    <t>Edit user details</t>
-  </si>
-  <si>
     <t>Provider wants to edit an ad</t>
   </si>
   <si>
@@ -143,6 +122,102 @@
   </si>
   <si>
     <t>Customer request details list</t>
+  </si>
+  <si>
+    <t>Provider wants to post an add</t>
+  </si>
+  <si>
+    <t>customer wants to search an add</t>
+  </si>
+  <si>
+    <t>customer wants to requests the service</t>
+  </si>
+  <si>
+    <t>provider wants to accept the request</t>
+  </si>
+  <si>
+    <t>customer wants to cancel  requests</t>
+  </si>
+  <si>
+    <t>provider wants to cancel  the acceppted request</t>
+  </si>
+  <si>
+    <t>customer wants to send message to provider</t>
+  </si>
+  <si>
+    <t>Users want to view chat</t>
+  </si>
+  <si>
+    <t>provider wants to view customers who requested services</t>
+  </si>
+  <si>
+    <t>customer wants to rate provider</t>
+  </si>
+  <si>
+    <t>provider wants to rate customer</t>
+  </si>
+  <si>
+    <t>Customer wants to edit customer requset</t>
+  </si>
+  <si>
+    <t>provider wants to accept customer request</t>
+  </si>
+  <si>
+    <t>Customer/ Provider wants to create user details</t>
+  </si>
+  <si>
+    <t>edit user account request</t>
+  </si>
+  <si>
+    <t>create user details requet</t>
+  </si>
+  <si>
+    <t>create user details</t>
+  </si>
+  <si>
+    <t>edit account</t>
+  </si>
+  <si>
+    <t>customer wants to confirm provider</t>
+  </si>
+  <si>
+    <t>provider wants to cancel the acceptance request</t>
+  </si>
+  <si>
+    <t>customer wants to cancel the acceptance</t>
+  </si>
+  <si>
+    <t>users want to delete chat</t>
+  </si>
+  <si>
+    <t>provider wants to send message to customers</t>
+  </si>
+  <si>
+    <t>customer wants to send message with provider</t>
+  </si>
+  <si>
+    <t>provider wants to send message with customer</t>
+  </si>
+  <si>
+    <t>Users can mark request as completed</t>
+  </si>
+  <si>
+    <t>Users can mark request as incompleted</t>
+  </si>
+  <si>
+    <t>System wants to send notifications to users</t>
+  </si>
+  <si>
+    <t>Users wants to view notifications</t>
+  </si>
+  <si>
+    <t>Users wants to delete notifications</t>
+  </si>
+  <si>
+    <t>system wants to verify user</t>
+  </si>
+  <si>
+    <t>User wants to change password</t>
   </si>
 </sst>
 </file>
@@ -460,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F48" sqref="A1:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,154 +572,284 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Event Table.xlsx
+++ b/Documentation/Event Table.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA793E0-0DDF-4D27-8554-B2264CDD8F05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA3AA7F-8154-4844-8744-41DDDAB80B01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="147">
   <si>
     <t>Event</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>Provider wants to view customer requests</t>
-  </si>
-  <si>
     <t>Customer wants to add customer request</t>
   </si>
   <si>
@@ -64,18 +61,9 @@
     <t>Post an ad</t>
   </si>
   <si>
-    <t>View customer requests</t>
-  </si>
-  <si>
     <t>View an ad</t>
   </si>
   <si>
-    <t>Customer request view request</t>
-  </si>
-  <si>
-    <t>Customer request add request</t>
-  </si>
-  <si>
     <t>Add customer requset</t>
   </si>
   <si>
@@ -85,12 +73,6 @@
     <t>Search ad</t>
   </si>
   <si>
-    <t>Customer/ Provider wants to edit user details</t>
-  </si>
-  <si>
-    <t>Customer/Provider</t>
-  </si>
-  <si>
     <t>Provider wants to edit an ad</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t>Customer wants to remove customer requset</t>
   </si>
   <si>
-    <t>Customer requset remove requset</t>
-  </si>
-  <si>
     <t>Remove customer requset</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>customer wants to requests the service</t>
   </si>
   <si>
-    <t>provider wants to accept the request</t>
-  </si>
-  <si>
     <t>customer wants to cancel  requests</t>
   </si>
   <si>
@@ -148,9 +124,6 @@
     <t>Users want to view chat</t>
   </si>
   <si>
-    <t>provider wants to view customers who requested services</t>
-  </si>
-  <si>
     <t>customer wants to rate provider</t>
   </si>
   <si>
@@ -163,42 +136,18 @@
     <t>provider wants to accept customer request</t>
   </si>
   <si>
-    <t>Customer/ Provider wants to create user details</t>
-  </si>
-  <si>
     <t>edit user account request</t>
   </si>
   <si>
-    <t>create user details requet</t>
-  </si>
-  <si>
-    <t>create user details</t>
-  </si>
-  <si>
     <t>edit account</t>
   </si>
   <si>
     <t>customer wants to confirm provider</t>
   </si>
   <si>
-    <t>provider wants to cancel the acceptance request</t>
-  </si>
-  <si>
-    <t>customer wants to cancel the acceptance</t>
-  </si>
-  <si>
     <t>users want to delete chat</t>
   </si>
   <si>
-    <t>provider wants to send message to customers</t>
-  </si>
-  <si>
-    <t>customer wants to send message with provider</t>
-  </si>
-  <si>
-    <t>provider wants to send message with customer</t>
-  </si>
-  <si>
     <t>Users can mark request as completed</t>
   </si>
   <si>
@@ -218,6 +167,300 @@
   </si>
   <si>
     <t>User wants to change password</t>
+  </si>
+  <si>
+    <t>request service</t>
+  </si>
+  <si>
+    <t>accept  request</t>
+  </si>
+  <si>
+    <t>cancel  requests</t>
+  </si>
+  <si>
+    <t>confirm requests</t>
+  </si>
+  <si>
+    <t>cancel requests</t>
+  </si>
+  <si>
+    <t>verify requests</t>
+  </si>
+  <si>
+    <t>change requests</t>
+  </si>
+  <si>
+    <t>cancel the accepted  requests</t>
+  </si>
+  <si>
+    <t>view chat</t>
+  </si>
+  <si>
+    <t>rate provider</t>
+  </si>
+  <si>
+    <t>rate customer</t>
+  </si>
+  <si>
+    <t>add request</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remove requset</t>
+  </si>
+  <si>
+    <t>edit  requset</t>
+  </si>
+  <si>
+    <t>delete chat</t>
+  </si>
+  <si>
+    <t>send notifications</t>
+  </si>
+  <si>
+    <t>view notifications</t>
+  </si>
+  <si>
+    <t>delete notifications</t>
+  </si>
+  <si>
+    <t>send message request</t>
+  </si>
+  <si>
+    <t>view chat request</t>
+  </si>
+  <si>
+    <t>rate provider request</t>
+  </si>
+  <si>
+    <t>rate customer request</t>
+  </si>
+  <si>
+    <t>delete chat request</t>
+  </si>
+  <si>
+    <t>mark as completed request</t>
+  </si>
+  <si>
+    <t>mark as incompleted request</t>
+  </si>
+  <si>
+    <t>send notifications request</t>
+  </si>
+  <si>
+    <t>view notifications request</t>
+  </si>
+  <si>
+    <t>delete notifications request</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>request the service</t>
+  </si>
+  <si>
+    <t>cancel accepted requests</t>
+  </si>
+  <si>
+    <t>send message to providers</t>
+  </si>
+  <si>
+    <t>edit customer request</t>
+  </si>
+  <si>
+    <t>accept customer request</t>
+  </si>
+  <si>
+    <t>confirm customer request</t>
+  </si>
+  <si>
+    <t>send message</t>
+  </si>
+  <si>
+    <t>mark completed</t>
+  </si>
+  <si>
+    <t>mark in completed</t>
+  </si>
+  <si>
+    <t>change password</t>
+  </si>
+  <si>
+    <t>verify account</t>
+  </si>
+  <si>
+    <t>customer wants to cancel the confirmation</t>
+  </si>
+  <si>
+    <t>cancel  confirmation</t>
+  </si>
+  <si>
+    <t>cancel confirmation for customer request</t>
+  </si>
+  <si>
+    <t>addvertisement's details</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>provider wants to send message to customer</t>
+  </si>
+  <si>
+    <t>Guest wants to register</t>
+  </si>
+  <si>
+    <t>Register account</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Register Account</t>
+  </si>
+  <si>
+    <t>Confirmation Email</t>
+  </si>
+  <si>
+    <t>Guest wants to search ads</t>
+  </si>
+  <si>
+    <t>Guest wants to view an add</t>
+  </si>
+  <si>
+    <t>Provider wants to search customer requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> search requests request</t>
+  </si>
+  <si>
+    <t>Search customer requests</t>
+  </si>
+  <si>
+    <t>Provider wants to view details of a customer requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> request details view request</t>
+  </si>
+  <si>
+    <t>View details of a customer requests</t>
+  </si>
+  <si>
+    <t>Request details</t>
+  </si>
+  <si>
+    <t>User wants to edit user accounts</t>
+  </si>
+  <si>
+    <t>User wants to report a user</t>
+  </si>
+  <si>
+    <t>report user request</t>
+  </si>
+  <si>
+    <t>report a user</t>
+  </si>
+  <si>
+    <t>admin/user</t>
+  </si>
+  <si>
+    <t>Admin wants to view user accounts</t>
+  </si>
+  <si>
+    <t>view accounts request</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>view user accounts</t>
+  </si>
+  <si>
+    <t>user account list</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin wants to delete user accounts</t>
+  </si>
+  <si>
+    <t>delete account request</t>
+  </si>
+  <si>
+    <t>delete user account</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Admin wants to view advertisements</t>
+  </si>
+  <si>
+    <t>view advertisements request</t>
+  </si>
+  <si>
+    <t>view advertisementss</t>
+  </si>
+  <si>
+    <t>advertisement list</t>
+  </si>
+  <si>
+    <t>Admin wants to view requests</t>
+  </si>
+  <si>
+    <t>view requests request</t>
+  </si>
+  <si>
+    <t>view user requests</t>
+  </si>
+  <si>
+    <t>user request list</t>
+  </si>
+  <si>
+    <t>Admin wants to delete advertisements</t>
+  </si>
+  <si>
+    <t>delete adv ertisements request</t>
+  </si>
+  <si>
+    <t>delete advertisement</t>
+  </si>
+  <si>
+    <t>delete user request</t>
+  </si>
+  <si>
+    <t>delete requests request</t>
   </si>
 </sst>
 </file>
@@ -233,12 +476,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,8 +502,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,18 +785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="A1:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,150 +820,246 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>56</v>
+      <c r="A12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>44</v>
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -721,13 +1067,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -735,121 +1087,491 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>46</v>
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>53</v>
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>57</v>
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>65</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
